--- a/RANfenologi.xlsx
+++ b/RANfenologi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audhalbritter/Dropbox/Bergen/Mismatch/Analysis/Mismatch/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1005" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="24480" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="RANfenologi" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">RANfenologi!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>Dato</t>
   </si>
@@ -559,9 +564,6 @@
   </si>
   <si>
     <t>sol_sky</t>
-  </si>
-  <si>
-    <t>24:07.2016</t>
   </si>
   <si>
     <t>sky_snø_sol</t>
@@ -576,8 +578,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -934,11 +936,10 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1208,28 +1209,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK162"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="T126" zoomScale="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH154" sqref="AH154"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="M1" zoomScale="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="37" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="36" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:37" s="35" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1297,8 @@
       <c r="V1" s="31">
         <v>42574</v>
       </c>
-      <c r="W1" s="35" t="s">
-        <v>178</v>
+      <c r="W1" s="32">
+        <v>42575</v>
       </c>
       <c r="X1" s="31">
         <v>42577</v>
@@ -1336,7 +1337,7 @@
       <c r="AJ1" s="34"/>
       <c r="AK1" s="34"/>
     </row>
-    <row r="2" spans="1:37" ht="14.25" customHeight="1">
+    <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1444,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="14.25" customHeight="1">
+    <row r="3" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1532,16 +1533,16 @@
         <v>174</v>
       </c>
       <c r="AD3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="AF3" s="28" t="s">
         <v>176</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>172</v>
@@ -1550,7 +1551,7 @@
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:37" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:37" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1658,7 @@
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="1:37" ht="14.25" customHeight="1">
+    <row r="5" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
@@ -1754,7 +1755,7 @@
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="1:37" ht="14.25" customHeight="1">
+    <row r="6" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" ht="14.25" customHeight="1">
+    <row r="7" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>39</v>
       </c>
@@ -1948,7 +1949,7 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" spans="1:37" ht="14.25" customHeight="1">
+    <row r="8" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -2045,7 +2046,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" ht="14.25" customHeight="1">
+    <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>41</v>
       </c>
@@ -2142,7 +2143,7 @@
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
     </row>
-    <row r="10" spans="1:37" ht="14.25" customHeight="1">
+    <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>42</v>
       </c>
@@ -2239,7 +2240,7 @@
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
     </row>
-    <row r="11" spans="1:37" ht="14.25" customHeight="1">
+    <row r="11" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>43</v>
       </c>
@@ -2336,7 +2337,7 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1">
+    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" spans="1:37" ht="14.25" customHeight="1">
+    <row r="13" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>45</v>
       </c>
@@ -2530,7 +2531,7 @@
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
     </row>
-    <row r="14" spans="1:37" ht="14.25" customHeight="1">
+    <row r="14" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
@@ -2627,7 +2628,7 @@
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
     </row>
-    <row r="15" spans="1:37" ht="14.25" customHeight="1">
+    <row r="15" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>47</v>
       </c>
@@ -2724,7 +2725,7 @@
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
     </row>
-    <row r="16" spans="1:37" ht="14.25" customHeight="1">
+    <row r="16" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" spans="1:37" ht="14.25" customHeight="1">
+    <row r="17" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2918,7 +2919,7 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" spans="1:37" ht="14.25" customHeight="1">
+    <row r="18" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
@@ -3015,7 +3016,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" ht="14.25" customHeight="1">
+    <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>51</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
     </row>
-    <row r="20" spans="1:37" ht="14.25" customHeight="1">
+    <row r="20" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
     </row>
-    <row r="21" spans="1:37" ht="14.25" customHeight="1">
+    <row r="21" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>53</v>
       </c>
@@ -3306,7 +3307,7 @@
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
     </row>
-    <row r="22" spans="1:37" ht="14.25" customHeight="1">
+    <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>54</v>
       </c>
@@ -3403,7 +3404,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
     </row>
-    <row r="23" spans="1:37" ht="14.25" customHeight="1">
+    <row r="23" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>55</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
     </row>
-    <row r="24" spans="1:37" ht="14.25" customHeight="1">
+    <row r="24" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>56</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
     </row>
-    <row r="25" spans="1:37" ht="14.25" customHeight="1">
+    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>57</v>
       </c>
@@ -3694,7 +3695,7 @@
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
     </row>
-    <row r="26" spans="1:37" ht="14.25" customHeight="1">
+    <row r="26" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>58</v>
       </c>
@@ -3791,7 +3792,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
     </row>
-    <row r="27" spans="1:37" ht="14.25" customHeight="1">
+    <row r="27" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>59</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
     </row>
-    <row r="28" spans="1:37" ht="14.25" customHeight="1">
+    <row r="28" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>60</v>
       </c>
@@ -3985,7 +3986,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" ht="14.25" customHeight="1">
+    <row r="29" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>61</v>
       </c>
@@ -4082,7 +4083,7 @@
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
     </row>
-    <row r="30" spans="1:37" ht="14.25" customHeight="1">
+    <row r="30" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>62</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
     </row>
-    <row r="31" spans="1:37" ht="14.25" customHeight="1">
+    <row r="31" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>63</v>
       </c>
@@ -4276,7 +4277,7 @@
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
     </row>
-    <row r="32" spans="1:37" ht="14.25" customHeight="1">
+    <row r="32" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>64</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
     </row>
-    <row r="33" spans="1:37" ht="14.25" customHeight="1">
+    <row r="33" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>65</v>
       </c>
@@ -4470,7 +4471,7 @@
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
     </row>
-    <row r="34" spans="1:37" ht="14.25" customHeight="1">
+    <row r="34" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>66</v>
       </c>
@@ -4567,7 +4568,7 @@
       <c r="AJ34" s="10"/>
       <c r="AK34" s="10"/>
     </row>
-    <row r="35" spans="1:37" ht="14.25" customHeight="1">
+    <row r="35" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>67</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
     </row>
-    <row r="36" spans="1:37" ht="14.25" customHeight="1">
+    <row r="36" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>68</v>
       </c>
@@ -4765,7 +4766,7 @@
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
     </row>
-    <row r="37" spans="1:37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>69</v>
       </c>
@@ -4864,7 +4865,7 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7"/>
     </row>
-    <row r="38" spans="1:37" ht="14.25" customHeight="1">
+    <row r="38" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>70</v>
       </c>
@@ -4963,7 +4964,7 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
     </row>
-    <row r="39" spans="1:37" ht="14.25" customHeight="1">
+    <row r="39" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>71</v>
       </c>
@@ -5062,7 +5063,7 @@
       <c r="AJ39" s="10"/>
       <c r="AK39" s="10"/>
     </row>
-    <row r="40" spans="1:37" ht="14.25" customHeight="1">
+    <row r="40" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>72</v>
       </c>
@@ -5161,7 +5162,7 @@
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
     </row>
-    <row r="41" spans="1:37" ht="14.25" customHeight="1">
+    <row r="41" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -5260,7 +5261,7 @@
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
     </row>
-    <row r="42" spans="1:37" ht="14.25" customHeight="1">
+    <row r="42" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -5359,7 +5360,7 @@
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
     </row>
-    <row r="43" spans="1:37" ht="14.25" customHeight="1">
+    <row r="43" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>75</v>
       </c>
@@ -5458,7 +5459,7 @@
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
     </row>
-    <row r="44" spans="1:37" ht="14.25" customHeight="1">
+    <row r="44" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>76</v>
       </c>
@@ -5557,7 +5558,7 @@
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
     </row>
-    <row r="45" spans="1:37" ht="14.25" customHeight="1">
+    <row r="45" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>77</v>
       </c>
@@ -5656,7 +5657,7 @@
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
     </row>
-    <row r="46" spans="1:37" ht="14.25" customHeight="1">
+    <row r="46" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>78</v>
       </c>
@@ -5755,7 +5756,7 @@
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
     </row>
-    <row r="47" spans="1:37" ht="14.25" customHeight="1">
+    <row r="47" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>79</v>
       </c>
@@ -5854,7 +5855,7 @@
       <c r="AJ47" s="7"/>
       <c r="AK47" s="7"/>
     </row>
-    <row r="48" spans="1:37" ht="14.25" customHeight="1">
+    <row r="48" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>80</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
     </row>
-    <row r="49" spans="1:37" ht="14.25" customHeight="1">
+    <row r="49" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>81</v>
       </c>
@@ -6052,7 +6053,7 @@
       <c r="AJ49" s="10"/>
       <c r="AK49" s="10"/>
     </row>
-    <row r="50" spans="1:37" ht="14.25" customHeight="1">
+    <row r="50" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>4</v>
       </c>
@@ -6151,7 +6152,7 @@
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
     </row>
-    <row r="51" spans="1:37" ht="14.25" customHeight="1">
+    <row r="51" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>5</v>
       </c>
@@ -6250,7 +6251,7 @@
       <c r="AJ51" s="7"/>
       <c r="AK51" s="7"/>
     </row>
-    <row r="52" spans="1:37" ht="14.25" customHeight="1">
+    <row r="52" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>6</v>
       </c>
@@ -6349,7 +6350,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
     </row>
-    <row r="53" spans="1:37" ht="14.25" customHeight="1">
+    <row r="53" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>7</v>
       </c>
@@ -6448,7 +6449,7 @@
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
     </row>
-    <row r="54" spans="1:37" ht="14.25" customHeight="1">
+    <row r="54" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>8</v>
       </c>
@@ -6547,7 +6548,7 @@
       <c r="AJ54" s="10"/>
       <c r="AK54" s="10"/>
     </row>
-    <row r="55" spans="1:37" ht="14.25" customHeight="1">
+    <row r="55" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>82</v>
       </c>
@@ -6636,7 +6637,7 @@
       <c r="AJ55" s="7"/>
       <c r="AK55" s="7"/>
     </row>
-    <row r="56" spans="1:37" ht="14.25" customHeight="1">
+    <row r="56" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>83</v>
       </c>
@@ -6725,7 +6726,7 @@
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
     </row>
-    <row r="57" spans="1:37" ht="14.25" customHeight="1">
+    <row r="57" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>84</v>
       </c>
@@ -6814,7 +6815,7 @@
       <c r="AJ57" s="7"/>
       <c r="AK57" s="7"/>
     </row>
-    <row r="58" spans="1:37" ht="14.25" customHeight="1">
+    <row r="58" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>85</v>
       </c>
@@ -6903,7 +6904,7 @@
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
     </row>
-    <row r="59" spans="1:37" ht="14.25" customHeight="1">
+    <row r="59" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>86</v>
       </c>
@@ -6992,7 +6993,7 @@
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
     </row>
-    <row r="60" spans="1:37" ht="14.25" customHeight="1">
+    <row r="60" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -7081,7 +7082,7 @@
       <c r="AJ60" s="5"/>
       <c r="AK60" s="5"/>
     </row>
-    <row r="61" spans="1:37" ht="14.25" customHeight="1">
+    <row r="61" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>88</v>
       </c>
@@ -7170,7 +7171,7 @@
       <c r="AJ61" s="7"/>
       <c r="AK61" s="7"/>
     </row>
-    <row r="62" spans="1:37" ht="14.25" customHeight="1">
+    <row r="62" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>89</v>
       </c>
@@ -7259,7 +7260,7 @@
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
     </row>
-    <row r="63" spans="1:37" ht="14.25" customHeight="1">
+    <row r="63" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>90</v>
       </c>
@@ -7348,7 +7349,7 @@
       <c r="AJ63" s="7"/>
       <c r="AK63" s="7"/>
     </row>
-    <row r="64" spans="1:37" ht="14.25" customHeight="1">
+    <row r="64" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>91</v>
       </c>
@@ -7437,7 +7438,7 @@
       <c r="AJ64" s="10"/>
       <c r="AK64" s="10"/>
     </row>
-    <row r="65" spans="1:37" ht="14.25" customHeight="1">
+    <row r="65" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>92</v>
       </c>
@@ -7526,7 +7527,7 @@
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5"/>
     </row>
-    <row r="66" spans="1:37" ht="14.25" customHeight="1">
+    <row r="66" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>93</v>
       </c>
@@ -7615,7 +7616,7 @@
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
     </row>
-    <row r="67" spans="1:37" ht="14.25" customHeight="1">
+    <row r="67" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>94</v>
       </c>
@@ -7704,7 +7705,7 @@
       <c r="AJ67" s="7"/>
       <c r="AK67" s="7"/>
     </row>
-    <row r="68" spans="1:37" ht="14.25" customHeight="1">
+    <row r="68" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>95</v>
       </c>
@@ -7793,7 +7794,7 @@
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
     </row>
-    <row r="69" spans="1:37" ht="14.25" customHeight="1">
+    <row r="69" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>96</v>
       </c>
@@ -7882,7 +7883,7 @@
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
     </row>
-    <row r="70" spans="1:37" ht="14.25" customHeight="1">
+    <row r="70" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>97</v>
       </c>
@@ -7971,7 +7972,7 @@
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
     </row>
-    <row r="71" spans="1:37" ht="14.25" customHeight="1">
+    <row r="71" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>98</v>
       </c>
@@ -8060,7 +8061,7 @@
       <c r="AJ71" s="7"/>
       <c r="AK71" s="7"/>
     </row>
-    <row r="72" spans="1:37" ht="14.25" customHeight="1">
+    <row r="72" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>99</v>
       </c>
@@ -8150,7 +8151,7 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
     </row>
-    <row r="73" spans="1:37" ht="14.25" customHeight="1">
+    <row r="73" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>100</v>
       </c>
@@ -8239,7 +8240,7 @@
       <c r="AJ73" s="7"/>
       <c r="AK73" s="7"/>
     </row>
-    <row r="74" spans="1:37" ht="14.25" customHeight="1">
+    <row r="74" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>101</v>
       </c>
@@ -8328,7 +8329,7 @@
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
     </row>
-    <row r="75" spans="1:37" ht="14.25" customHeight="1">
+    <row r="75" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>102</v>
       </c>
@@ -8417,7 +8418,7 @@
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
     </row>
-    <row r="76" spans="1:37" ht="14.25" customHeight="1">
+    <row r="76" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
@@ -8506,7 +8507,7 @@
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
     </row>
-    <row r="77" spans="1:37" ht="14.25" customHeight="1">
+    <row r="77" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>104</v>
       </c>
@@ -8595,7 +8596,7 @@
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
     </row>
-    <row r="78" spans="1:37" ht="14.25" customHeight="1">
+    <row r="78" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>105</v>
       </c>
@@ -8684,7 +8685,7 @@
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
     </row>
-    <row r="79" spans="1:37" ht="14.25" customHeight="1">
+    <row r="79" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>106</v>
       </c>
@@ -8773,7 +8774,7 @@
       <c r="AJ79" s="10"/>
       <c r="AK79" s="10"/>
     </row>
-    <row r="80" spans="1:37" ht="14.25" customHeight="1">
+    <row r="80" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>107</v>
       </c>
@@ -8862,7 +8863,7 @@
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
     </row>
-    <row r="81" spans="1:37" ht="14.25" customHeight="1">
+    <row r="81" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>108</v>
       </c>
@@ -8951,7 +8952,7 @@
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
     </row>
-    <row r="82" spans="1:37" ht="14.25" customHeight="1">
+    <row r="82" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>109</v>
       </c>
@@ -9040,7 +9041,7 @@
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
     </row>
-    <row r="83" spans="1:37" ht="14.25" customHeight="1">
+    <row r="83" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>110</v>
       </c>
@@ -9129,7 +9130,7 @@
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
     </row>
-    <row r="84" spans="1:37" ht="14.25" customHeight="1">
+    <row r="84" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>111</v>
       </c>
@@ -9218,7 +9219,7 @@
       <c r="AJ84" s="10"/>
       <c r="AK84" s="10"/>
     </row>
-    <row r="85" spans="1:37" ht="14.25" customHeight="1">
+    <row r="85" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>112</v>
       </c>
@@ -9307,7 +9308,7 @@
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
     </row>
-    <row r="86" spans="1:37" ht="14.25" customHeight="1">
+    <row r="86" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>113</v>
       </c>
@@ -9396,7 +9397,7 @@
       <c r="AJ86" s="7"/>
       <c r="AK86" s="7"/>
     </row>
-    <row r="87" spans="1:37" ht="14.25" customHeight="1">
+    <row r="87" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>114</v>
       </c>
@@ -9485,7 +9486,7 @@
       <c r="AJ87" s="7"/>
       <c r="AK87" s="7"/>
     </row>
-    <row r="88" spans="1:37" ht="14.25" customHeight="1">
+    <row r="88" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>115</v>
       </c>
@@ -9574,7 +9575,7 @@
       <c r="AJ88" s="7"/>
       <c r="AK88" s="7"/>
     </row>
-    <row r="89" spans="1:37" ht="14.25" customHeight="1">
+    <row r="89" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>116</v>
       </c>
@@ -9663,7 +9664,7 @@
       <c r="AJ89" s="10"/>
       <c r="AK89" s="10"/>
     </row>
-    <row r="90" spans="1:37" ht="14.25" customHeight="1">
+    <row r="90" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -9752,7 +9753,7 @@
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5"/>
     </row>
-    <row r="91" spans="1:37" ht="14.25" customHeight="1">
+    <row r="91" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>118</v>
       </c>
@@ -9841,7 +9842,7 @@
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
     </row>
-    <row r="92" spans="1:37" ht="14.25" customHeight="1">
+    <row r="92" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>119</v>
       </c>
@@ -9930,7 +9931,7 @@
       <c r="AJ92" s="7"/>
       <c r="AK92" s="7"/>
     </row>
-    <row r="93" spans="1:37" ht="14.25" customHeight="1">
+    <row r="93" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>120</v>
       </c>
@@ -10019,7 +10020,7 @@
       <c r="AJ93" s="7"/>
       <c r="AK93" s="7"/>
     </row>
-    <row r="94" spans="1:37" ht="14.25" customHeight="1">
+    <row r="94" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>121</v>
       </c>
@@ -10108,7 +10109,7 @@
       <c r="AJ94" s="10"/>
       <c r="AK94" s="10"/>
     </row>
-    <row r="95" spans="1:37" ht="14.25" customHeight="1">
+    <row r="95" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>122</v>
       </c>
@@ -10197,7 +10198,7 @@
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5"/>
     </row>
-    <row r="96" spans="1:37" ht="14.25" customHeight="1">
+    <row r="96" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>123</v>
       </c>
@@ -10286,7 +10287,7 @@
       <c r="AJ96" s="7"/>
       <c r="AK96" s="7"/>
     </row>
-    <row r="97" spans="1:37" ht="14.25" customHeight="1">
+    <row r="97" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>124</v>
       </c>
@@ -10375,7 +10376,7 @@
       <c r="AJ97" s="7"/>
       <c r="AK97" s="7"/>
     </row>
-    <row r="98" spans="1:37" ht="14.25" customHeight="1">
+    <row r="98" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>125</v>
       </c>
@@ -10464,7 +10465,7 @@
       <c r="AJ98" s="7"/>
       <c r="AK98" s="7"/>
     </row>
-    <row r="99" spans="1:37" ht="14.25" customHeight="1">
+    <row r="99" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>126</v>
       </c>
@@ -10553,7 +10554,7 @@
       <c r="AJ99" s="10"/>
       <c r="AK99" s="10"/>
     </row>
-    <row r="100" spans="1:37" ht="14.25" customHeight="1">
+    <row r="100" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
@@ -10642,7 +10643,7 @@
       <c r="AJ100" s="5"/>
       <c r="AK100" s="5"/>
     </row>
-    <row r="101" spans="1:37" ht="14.25" customHeight="1">
+    <row r="101" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>10</v>
       </c>
@@ -10731,7 +10732,7 @@
       <c r="AJ101" s="7"/>
       <c r="AK101" s="7"/>
     </row>
-    <row r="102" spans="1:37" ht="14.25" customHeight="1">
+    <row r="102" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>11</v>
       </c>
@@ -10820,7 +10821,7 @@
       <c r="AJ102" s="7"/>
       <c r="AK102" s="7"/>
     </row>
-    <row r="103" spans="1:37" ht="14.25" customHeight="1">
+    <row r="103" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
@@ -10909,7 +10910,7 @@
       <c r="AJ103" s="7"/>
       <c r="AK103" s="7"/>
     </row>
-    <row r="104" spans="1:37" ht="14.25" customHeight="1">
+    <row r="104" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>13</v>
       </c>
@@ -10998,7 +10999,7 @@
       <c r="AJ104" s="10"/>
       <c r="AK104" s="10"/>
     </row>
-    <row r="105" spans="1:37" ht="14.25" customHeight="1">
+    <row r="105" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11073,7 +11074,7 @@
       <c r="AJ105" s="7"/>
       <c r="AK105" s="7"/>
     </row>
-    <row r="106" spans="1:37" ht="14.25" customHeight="1">
+    <row r="106" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>128</v>
       </c>
@@ -11148,7 +11149,7 @@
       <c r="AJ106" s="7"/>
       <c r="AK106" s="7"/>
     </row>
-    <row r="107" spans="1:37" ht="14.25" customHeight="1">
+    <row r="107" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
@@ -11223,7 +11224,7 @@
       <c r="AJ107" s="7"/>
       <c r="AK107" s="7"/>
     </row>
-    <row r="108" spans="1:37" ht="14.25" customHeight="1">
+    <row r="108" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>130</v>
       </c>
@@ -11298,7 +11299,7 @@
       <c r="AJ108" s="7"/>
       <c r="AK108" s="7"/>
     </row>
-    <row r="109" spans="1:37" ht="14.25" customHeight="1">
+    <row r="109" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>131</v>
       </c>
@@ -11373,7 +11374,7 @@
       <c r="AJ109" s="10"/>
       <c r="AK109" s="10"/>
     </row>
-    <row r="110" spans="1:37" ht="14.25" customHeight="1">
+    <row r="110" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>132</v>
       </c>
@@ -11448,7 +11449,7 @@
       <c r="AJ110" s="5"/>
       <c r="AK110" s="5"/>
     </row>
-    <row r="111" spans="1:37" ht="14.25" customHeight="1">
+    <row r="111" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>133</v>
       </c>
@@ -11523,7 +11524,7 @@
       <c r="AJ111" s="7"/>
       <c r="AK111" s="7"/>
     </row>
-    <row r="112" spans="1:37" ht="14.25" customHeight="1">
+    <row r="112" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>134</v>
       </c>
@@ -11598,7 +11599,7 @@
       <c r="AJ112" s="7"/>
       <c r="AK112" s="7"/>
     </row>
-    <row r="113" spans="1:37" ht="14.25" customHeight="1">
+    <row r="113" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>135</v>
       </c>
@@ -11673,7 +11674,7 @@
       <c r="AJ113" s="7"/>
       <c r="AK113" s="7"/>
     </row>
-    <row r="114" spans="1:37" ht="14.25" customHeight="1">
+    <row r="114" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>136</v>
       </c>
@@ -11748,7 +11749,7 @@
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10"/>
     </row>
-    <row r="115" spans="1:37" ht="14.25" customHeight="1">
+    <row r="115" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>137</v>
       </c>
@@ -11823,7 +11824,7 @@
       <c r="AJ115" s="5"/>
       <c r="AK115" s="5"/>
     </row>
-    <row r="116" spans="1:37" ht="14.25" customHeight="1">
+    <row r="116" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>138</v>
       </c>
@@ -11898,7 +11899,7 @@
       <c r="AJ116" s="7"/>
       <c r="AK116" s="7"/>
     </row>
-    <row r="117" spans="1:37" ht="14.25" customHeight="1">
+    <row r="117" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>139</v>
       </c>
@@ -11973,7 +11974,7 @@
       <c r="AJ117" s="7"/>
       <c r="AK117" s="7"/>
     </row>
-    <row r="118" spans="1:37" ht="14.25" customHeight="1">
+    <row r="118" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>140</v>
       </c>
@@ -12048,7 +12049,7 @@
       <c r="AJ118" s="7"/>
       <c r="AK118" s="7"/>
     </row>
-    <row r="119" spans="1:37" ht="14.25" customHeight="1">
+    <row r="119" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>141</v>
       </c>
@@ -12123,7 +12124,7 @@
       <c r="AJ119" s="10"/>
       <c r="AK119" s="10"/>
     </row>
-    <row r="120" spans="1:37" ht="14.25" customHeight="1">
+    <row r="120" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>142</v>
       </c>
@@ -12198,7 +12199,7 @@
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5"/>
     </row>
-    <row r="121" spans="1:37" ht="14.25" customHeight="1">
+    <row r="121" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>143</v>
       </c>
@@ -12273,7 +12274,7 @@
       <c r="AJ121" s="7"/>
       <c r="AK121" s="7"/>
     </row>
-    <row r="122" spans="1:37" ht="14.25" customHeight="1">
+    <row r="122" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>144</v>
       </c>
@@ -12348,7 +12349,7 @@
       <c r="AJ122" s="7"/>
       <c r="AK122" s="7"/>
     </row>
-    <row r="123" spans="1:37" ht="14.25" customHeight="1">
+    <row r="123" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>145</v>
       </c>
@@ -12423,7 +12424,7 @@
       <c r="AJ123" s="7"/>
       <c r="AK123" s="7"/>
     </row>
-    <row r="124" spans="1:37" ht="14.25" customHeight="1">
+    <row r="124" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>146</v>
       </c>
@@ -12498,7 +12499,7 @@
       <c r="AJ124" s="10"/>
       <c r="AK124" s="10"/>
     </row>
-    <row r="125" spans="1:37" ht="14.25" customHeight="1">
+    <row r="125" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>147</v>
       </c>
@@ -12573,7 +12574,7 @@
       <c r="AJ125" s="5"/>
       <c r="AK125" s="5"/>
     </row>
-    <row r="126" spans="1:37" ht="14.25" customHeight="1">
+    <row r="126" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>148</v>
       </c>
@@ -12648,7 +12649,7 @@
       <c r="AJ126" s="7"/>
       <c r="AK126" s="7"/>
     </row>
-    <row r="127" spans="1:37" ht="14.25" customHeight="1">
+    <row r="127" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>149</v>
       </c>
@@ -12723,7 +12724,7 @@
       <c r="AJ127" s="7"/>
       <c r="AK127" s="7"/>
     </row>
-    <row r="128" spans="1:37" ht="14.25" customHeight="1">
+    <row r="128" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>150</v>
       </c>
@@ -12798,7 +12799,7 @@
       <c r="AJ128" s="7"/>
       <c r="AK128" s="7"/>
     </row>
-    <row r="129" spans="1:37" ht="14.25" customHeight="1">
+    <row r="129" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>151</v>
       </c>
@@ -12873,7 +12874,7 @@
       <c r="AJ129" s="10"/>
       <c r="AK129" s="10"/>
     </row>
-    <row r="130" spans="1:37" ht="14.25" customHeight="1">
+    <row r="130" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>152</v>
       </c>
@@ -12948,7 +12949,7 @@
       <c r="AJ130" s="7"/>
       <c r="AK130" s="7"/>
     </row>
-    <row r="131" spans="1:37" ht="14.25" customHeight="1">
+    <row r="131" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>153</v>
       </c>
@@ -13023,7 +13024,7 @@
       <c r="AJ131" s="7"/>
       <c r="AK131" s="7"/>
     </row>
-    <row r="132" spans="1:37" ht="14.25" customHeight="1">
+    <row r="132" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>154</v>
       </c>
@@ -13098,7 +13099,7 @@
       <c r="AJ132" s="7"/>
       <c r="AK132" s="7"/>
     </row>
-    <row r="133" spans="1:37" ht="14.25" customHeight="1">
+    <row r="133" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>155</v>
       </c>
@@ -13173,7 +13174,7 @@
       <c r="AJ133" s="7"/>
       <c r="AK133" s="7"/>
     </row>
-    <row r="134" spans="1:37" ht="14.25" customHeight="1">
+    <row r="134" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>156</v>
       </c>
@@ -13248,7 +13249,7 @@
       <c r="AJ134" s="10"/>
       <c r="AK134" s="10"/>
     </row>
-    <row r="135" spans="1:37" ht="14.25" customHeight="1">
+    <row r="135" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>157</v>
       </c>
@@ -13323,7 +13324,7 @@
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5"/>
     </row>
-    <row r="136" spans="1:37" ht="14.25" customHeight="1">
+    <row r="136" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>158</v>
       </c>
@@ -13398,7 +13399,7 @@
       <c r="AJ136" s="7"/>
       <c r="AK136" s="7"/>
     </row>
-    <row r="137" spans="1:37" ht="14.25" customHeight="1">
+    <row r="137" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>159</v>
       </c>
@@ -13473,7 +13474,7 @@
       <c r="AJ137" s="7"/>
       <c r="AK137" s="7"/>
     </row>
-    <row r="138" spans="1:37" ht="14.25" customHeight="1">
+    <row r="138" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>160</v>
       </c>
@@ -13548,7 +13549,7 @@
       <c r="AJ138" s="7"/>
       <c r="AK138" s="7"/>
     </row>
-    <row r="139" spans="1:37" ht="14.25" customHeight="1">
+    <row r="139" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>161</v>
       </c>
@@ -13623,7 +13624,7 @@
       <c r="AJ139" s="10"/>
       <c r="AK139" s="10"/>
     </row>
-    <row r="140" spans="1:37" ht="14.25" customHeight="1">
+    <row r="140" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>162</v>
       </c>
@@ -13698,7 +13699,7 @@
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5"/>
     </row>
-    <row r="141" spans="1:37" ht="14.25" customHeight="1">
+    <row r="141" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>163</v>
       </c>
@@ -13773,7 +13774,7 @@
       <c r="AJ141" s="7"/>
       <c r="AK141" s="7"/>
     </row>
-    <row r="142" spans="1:37" ht="14.25" customHeight="1">
+    <row r="142" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>164</v>
       </c>
@@ -13848,7 +13849,7 @@
       <c r="AJ142" s="7"/>
       <c r="AK142" s="7"/>
     </row>
-    <row r="143" spans="1:37" ht="14.25" customHeight="1">
+    <row r="143" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>165</v>
       </c>
@@ -13923,7 +13924,7 @@
       <c r="AJ143" s="7"/>
       <c r="AK143" s="7"/>
     </row>
-    <row r="144" spans="1:37" ht="14.25" customHeight="1">
+    <row r="144" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>166</v>
       </c>
@@ -13998,7 +13999,7 @@
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10"/>
     </row>
-    <row r="145" spans="1:37" ht="14.25" customHeight="1">
+    <row r="145" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>167</v>
       </c>
@@ -14073,7 +14074,7 @@
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5"/>
     </row>
-    <row r="146" spans="1:37" ht="14.25" customHeight="1">
+    <row r="146" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>168</v>
       </c>
@@ -14148,7 +14149,7 @@
       <c r="AJ146" s="7"/>
       <c r="AK146" s="7"/>
     </row>
-    <row r="147" spans="1:37" ht="14.25" customHeight="1">
+    <row r="147" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>169</v>
       </c>
@@ -14223,7 +14224,7 @@
       <c r="AJ147" s="7"/>
       <c r="AK147" s="7"/>
     </row>
-    <row r="148" spans="1:37" ht="14.25" customHeight="1">
+    <row r="148" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>170</v>
       </c>
@@ -14298,7 +14299,7 @@
       <c r="AJ148" s="7"/>
       <c r="AK148" s="7"/>
     </row>
-    <row r="149" spans="1:37" ht="14.25" customHeight="1">
+    <row r="149" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>171</v>
       </c>
@@ -14373,7 +14374,7 @@
       <c r="AJ149" s="10"/>
       <c r="AK149" s="10"/>
     </row>
-    <row r="150" spans="1:37" ht="14.25" customHeight="1">
+    <row r="150" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>14</v>
       </c>
@@ -14448,7 +14449,7 @@
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5"/>
     </row>
-    <row r="151" spans="1:37" ht="14.25" customHeight="1">
+    <row r="151" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>15</v>
       </c>
@@ -14523,7 +14524,7 @@
       <c r="AJ151" s="7"/>
       <c r="AK151" s="7"/>
     </row>
-    <row r="152" spans="1:37" ht="14.25" customHeight="1">
+    <row r="152" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>16</v>
       </c>
@@ -14598,7 +14599,7 @@
       <c r="AJ152" s="7"/>
       <c r="AK152" s="7"/>
     </row>
-    <row r="153" spans="1:37" ht="14.25" customHeight="1">
+    <row r="153" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>17</v>
       </c>
@@ -14673,7 +14674,7 @@
       <c r="AJ153" s="7"/>
       <c r="AK153" s="7"/>
     </row>
-    <row r="154" spans="1:37" ht="14.25" customHeight="1">
+    <row r="154" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>18</v>
       </c>
@@ -14748,14 +14749,14 @@
       <c r="AJ154" s="10"/>
       <c r="AK154" s="10"/>
     </row>
-    <row r="155" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="156" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="157" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="158" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="159" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="160" spans="1:37" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="155" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
